--- a/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-4thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-4thInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,21 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -232,10 +247,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,8 +273,13 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,7 +603,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +648,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>583.36</v>
+        <v>583.69000000000005</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -639,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>583.36</v>
+        <v>583.69000000000005</v>
       </c>
       <c r="F3" s="6">
         <v>217.95</v>
@@ -692,10 +713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,6 +1030,29 @@
         <v>887.72</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>42282</v>
+      </c>
+      <c r="B15" s="6">
+        <v>675.14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.65</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>681.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1019,7 +1063,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,13 +1250,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>835.73</v>
+        <v>835.72</v>
       </c>
       <c r="G5" s="7">
-        <v>2489.66</v>
+        <v>2489.67</v>
       </c>
       <c r="H5" s="6">
-        <v>51.99</v>
+        <v>52</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1280,13 +1324,13 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>828.6</v>
+        <v>828.54</v>
       </c>
       <c r="G7" s="7">
-        <v>6661.06</v>
+        <v>6661.13</v>
       </c>
       <c r="H7" s="6">
-        <v>59.12</v>
+        <v>59.18</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1325,13 +1369,13 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>793.51</v>
+        <v>793.48</v>
       </c>
       <c r="G8" s="7">
-        <v>5867.55</v>
+        <v>5867.65</v>
       </c>
       <c r="H8" s="6">
-        <v>94.21</v>
+        <v>94.24</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1370,13 +1414,13 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>788.32</v>
+        <v>788.12</v>
       </c>
       <c r="G9" s="7">
-        <v>5079.2299999999996</v>
+        <v>5079.53</v>
       </c>
       <c r="H9" s="6">
-        <v>99.4</v>
+        <v>99.6</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1418,7 +1462,7 @@
         <v>837.63</v>
       </c>
       <c r="G10" s="7">
-        <v>4241.6000000000004</v>
+        <v>4241.8999999999996</v>
       </c>
       <c r="H10" s="6">
         <v>50.09</v>
@@ -1463,7 +1507,7 @@
         <v>844.5</v>
       </c>
       <c r="G11" s="7">
-        <v>3397.1</v>
+        <v>3397.4</v>
       </c>
       <c r="H11" s="6">
         <v>43.22</v>
@@ -1508,7 +1552,7 @@
         <v>854.22</v>
       </c>
       <c r="G12" s="7">
-        <v>2542.88</v>
+        <v>2543.1799999999998</v>
       </c>
       <c r="H12" s="6">
         <v>33.5</v>
@@ -1550,13 +1594,13 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>861.82</v>
+        <v>861.81</v>
       </c>
       <c r="G13" s="7">
-        <v>1681.06</v>
+        <v>1681.37</v>
       </c>
       <c r="H13" s="6">
-        <v>25.9</v>
+        <v>25.91</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1595,13 +1639,13 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>870.6</v>
+        <v>870.59</v>
       </c>
       <c r="G14" s="6">
-        <v>810.46</v>
+        <v>810.78</v>
       </c>
       <c r="H14" s="6">
-        <v>17.12</v>
+        <v>17.13</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1640,13 +1684,13 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>810.46</v>
+        <v>810.78</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>7.98</v>
+        <v>7.99</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
@@ -1655,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>818.44</v>
+        <v>818.77</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -1669,7 +1713,7 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6">
-        <v>818.44</v>
+        <v>818.77</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1723,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1768,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1736,19 +1780,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>105.12</v>
+        <v>105.35</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>10420.09</v>
+        <v>10443.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1760,7 +1804,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>44.35</v>
+        <v>0.23</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1772,7 +1816,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>371</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1784,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>7.3</v>
+        <v>51.42</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1796,7 +1840,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>312</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1808,7 +1852,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="6">
-        <v>53.47</v>
+        <v>0.15</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1820,19 +1864,19 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>401</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="6">
-        <v>94.09</v>
+        <v>0.08</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1844,91 +1888,91 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>94.09</v>
+        <v>53.47</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7">
-        <v>10314.969999999999</v>
+      <c r="J7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>373</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>42036</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="6">
+        <v>116.71</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="7">
-        <v>10220.879999999999</v>
+        <v>10337.66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>74.83</v>
+        <v>22.62</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7">
-        <v>5220.88</v>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="6">
-        <v>22.38</v>
+        <v>46.02</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1940,19 +1984,19 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="6">
-        <v>52.45</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1964,19 +2008,19 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="6">
-        <v>51.92</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1988,115 +2032,115 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="8">
-        <v>42004</v>
+        <v>42063</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="6">
-        <v>51.92</v>
+        <v>47.86</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7">
-        <v>5146.05</v>
+      <c r="J13" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="8">
-        <v>41973</v>
+        <v>42036</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6">
-        <v>49.75</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="7">
-        <v>5094.13</v>
+        <v>10220.950000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="8">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
-        <v>49.75</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
-        <v>0</v>
+      <c r="J15" s="7">
+        <v>5220.95</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="8">
-        <v>41943</v>
+        <v>42035</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="6">
-        <v>44.38</v>
+        <v>15.08</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="7">
-        <v>5044.38</v>
+      <c r="J16" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>302</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="8">
-        <v>41943</v>
+        <v>42035</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="6">
-        <v>44.38</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2108,25 +2152,217 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>52.45</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>57</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <v>42004</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="6">
+        <v>59.22</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7">
+        <v>5153.3500000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>42004</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>48</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="8">
+        <v>42004</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6">
+        <v>51.92</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7">
+        <v>5094.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="8">
+        <v>41973</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="8">
+        <v>41943</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
         <v>41917</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E26" s="5">
         <v>5000</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -2140,12 +2376,14 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="9"/>
+    <col min="5" max="6" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2181,7 +2419,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -2210,8 +2461,9 @@
       <c r="J3" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -2240,8 +2492,9 @@
       <c r="J4" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -2270,8 +2523,14 @@
       <c r="J5" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="K5" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/3/waivecharge/5" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/5"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/3/waivecharge/6" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/6"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/3/waivecharge/7" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/3/waivecharge/7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>